--- a/data/data-wrangling-intermediate/04.1b_edited-species-seeded4_NA-corrected_subplot.xlsx
+++ b/data/data-wrangling-intermediate/04.1b_edited-species-seeded4_NA-corrected_subplot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{52757CE1-52D8-441D-AFF7-D2DD27AA1F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33CB1572-F76B-457C-B44E-3A55110931EE}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{52757CE1-52D8-441D-AFF7-D2DD27AA1F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F544F897-316F-437B-B09B-A0129B87A863}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="04.1a_output-species-seeded4_NA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="208">
   <si>
     <t>Site</t>
   </si>
@@ -1293,9 +1293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1333,7 +1333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1439,7 +1439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1581,7 +1581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1589,11 +1589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2831,28 +2831,28 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>206</v>
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2863,7 +2863,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -2895,7 +2895,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -2930,16 +2930,16 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H42" t="s">
         <v>30</v>
@@ -2959,7 +2959,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>46</v>
@@ -2991,7 +2991,7 @@
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -3023,16 +3023,16 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -3041,7 +3041,7 @@
         <v>30</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>206</v>
@@ -3058,22 +3058,22 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
         <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>206</v>
@@ -3090,25 +3090,25 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
         <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
         <v>31</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3119,16 +3119,16 @@
         <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G48" t="s">
         <v>6</v>
@@ -3140,7 +3140,7 @@
         <v>31</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -3151,7 +3151,7 @@
         <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
         <v>55</v>
@@ -3183,28 +3183,28 @@
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s">
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s">
         <v>31</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -3215,19 +3215,19 @@
         <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H51" t="s">
         <v>30</v>
@@ -3236,7 +3236,7 @@
         <v>31</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -3250,16 +3250,16 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H52" t="s">
         <v>30</v>
@@ -3279,7 +3279,7 @@
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>61</v>
@@ -3311,7 +3311,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>61</v>
@@ -3343,19 +3343,19 @@
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H55" t="s">
         <v>30</v>
@@ -3375,7 +3375,7 @@
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>63</v>
@@ -3401,34 +3401,34 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0</v>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3439,7 +3439,7 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3503,28 +3503,28 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" t="s">
-        <v>38</v>
-      </c>
-      <c r="I60" t="s">
-        <v>50</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>206</v>
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -3538,13 +3538,13 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
         <v>38</v>
@@ -3553,7 +3553,7 @@
         <v>38</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>206</v>
@@ -3561,34 +3561,34 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3665,26 +3665,26 @@
       <c r="C65" t="s">
         <v>20</v>
       </c>
-      <c r="D65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H65" t="s">
-        <v>38</v>
-      </c>
-      <c r="I65" t="s">
-        <v>31</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>206</v>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3698,13 +3698,13 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
@@ -3729,26 +3729,26 @@
       <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3759,7 +3759,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3823,33 +3823,33 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" t="s">
-        <v>50</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>206</v>
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
         <v>66</v>
@@ -3857,26 +3857,26 @@
       <c r="C71" t="s">
         <v>20</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0</v>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s">
+        <v>50</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3887,7 +3887,7 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3953,26 +3953,26 @@
       <c r="C74" t="s">
         <v>14</v>
       </c>
-      <c r="D74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" t="s">
-        <v>86</v>
-      </c>
-      <c r="F74" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" t="s">
-        <v>38</v>
-      </c>
-      <c r="I74" t="s">
-        <v>38</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>206</v>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3983,25 +3983,25 @@
         <v>66</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s">
         <v>38</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>206</v>
@@ -4015,25 +4015,25 @@
         <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H76" t="s">
         <v>38</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>206</v>
@@ -4041,34 +4041,34 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" t="s">
+        <v>92</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -4079,7 +4079,7 @@
         <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4143,28 +4143,28 @@
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>95</v>
-      </c>
-      <c r="E80" t="s">
-        <v>95</v>
-      </c>
-      <c r="F80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" t="s">
-        <v>38</v>
-      </c>
-      <c r="I80" t="s">
-        <v>31</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>206</v>
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -4178,22 +4178,22 @@
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="I81" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>206</v>
@@ -4210,22 +4210,22 @@
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G82" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H82" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I82" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>206</v>
@@ -4242,13 +4242,13 @@
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G83" t="s">
         <v>6</v>
@@ -4274,22 +4274,22 @@
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G84" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="I84" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>206</v>
@@ -4306,22 +4306,22 @@
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G85" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="H85" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I85" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>206</v>
@@ -4338,19 +4338,19 @@
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G86" t="s">
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I86" t="s">
         <v>31</v>
@@ -4370,19 +4370,19 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I87" t="s">
         <v>31</v>
@@ -4402,22 +4402,22 @@
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G88" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>206</v>
@@ -4434,22 +4434,22 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I89" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>206</v>
@@ -4463,16 +4463,16 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -4495,16 +4495,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -4530,13 +4530,13 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E92" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F92" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -4562,22 +4562,22 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G93" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H93" t="s">
         <v>38</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>206</v>
@@ -4594,22 +4594,22 @@
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E94" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F94" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="H94" t="s">
         <v>38</v>
       </c>
       <c r="I94" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>206</v>
@@ -4617,34 +4617,34 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" s="1">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" t="s">
+        <v>133</v>
+      </c>
+      <c r="F95" t="s">
+        <v>134</v>
+      </c>
+      <c r="G95" t="s">
+        <v>108</v>
+      </c>
+      <c r="H95" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4655,7 +4655,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4687,28 +4687,28 @@
         <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" t="s">
-        <v>136</v>
-      </c>
-      <c r="F97" t="s">
-        <v>137</v>
-      </c>
-      <c r="G97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" t="s">
-        <v>30</v>
-      </c>
-      <c r="I97" t="s">
-        <v>50</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>206</v>
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4719,22 +4719,22 @@
         <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G98" t="s">
         <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I98" t="s">
         <v>50</v>
@@ -4751,16 +4751,16 @@
         <v>94</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G99" t="s">
         <v>6</v>
@@ -4769,7 +4769,7 @@
         <v>99</v>
       </c>
       <c r="I99" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>206</v>
@@ -4783,25 +4783,25 @@
         <v>94</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E100" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F100" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G100" t="s">
         <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I100" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>206</v>
@@ -4815,7 +4815,7 @@
         <v>94</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
         <v>142</v>
@@ -4847,7 +4847,7 @@
         <v>94</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
         <v>142</v>
@@ -4882,22 +4882,22 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E103" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F103" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="H103" t="s">
         <v>38</v>
       </c>
       <c r="I103" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>206</v>
@@ -4911,7 +4911,7 @@
         <v>94</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
         <v>145</v>
@@ -4943,22 +4943,22 @@
         <v>94</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F105" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G105" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="H105" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I105" t="s">
         <v>31</v>
@@ -4975,7 +4975,7 @@
         <v>94</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
         <v>148</v>
@@ -5007,7 +5007,7 @@
         <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
         <v>148</v>
@@ -5039,16 +5039,16 @@
         <v>94</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F108" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G108" t="s">
         <v>6</v>
@@ -5071,7 +5071,7 @@
         <v>94</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
         <v>150</v>
@@ -5103,7 +5103,7 @@
         <v>94</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
         <v>150</v>
@@ -5138,19 +5138,19 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E111" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F111" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G111" t="s">
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>
@@ -5167,7 +5167,7 @@
         <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
         <v>152</v>
@@ -5199,7 +5199,7 @@
         <v>94</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
         <v>152</v>
@@ -5234,16 +5234,16 @@
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E114" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F114" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H114" t="s">
         <v>38</v>
@@ -5263,7 +5263,7 @@
         <v>94</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
         <v>155</v>
@@ -5295,22 +5295,22 @@
         <v>94</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E116" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G116" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H116" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="I116" t="s">
         <v>31</v>
@@ -5327,25 +5327,25 @@
         <v>94</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="E117" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="F117" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H117" t="s">
         <v>99</v>
       </c>
       <c r="I117" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>206</v>
@@ -5359,22 +5359,22 @@
         <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="E118" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="F118" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="G118" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H118" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I118" t="s">
         <v>50</v>
@@ -5391,25 +5391,25 @@
         <v>94</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F119" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H119" t="s">
         <v>38</v>
       </c>
       <c r="I119" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>206</v>
@@ -5423,7 +5423,7 @@
         <v>94</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
         <v>162</v>
@@ -5455,7 +5455,7 @@
         <v>94</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s">
         <v>162</v>
@@ -5487,19 +5487,19 @@
         <v>94</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="E122" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G122" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H122" t="s">
         <v>38</v>
@@ -5519,7 +5519,7 @@
         <v>94</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
         <v>102</v>
@@ -5551,7 +5551,7 @@
         <v>94</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D124" t="s">
         <v>102</v>
@@ -5586,19 +5586,19 @@
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="E125" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F125" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G125" t="s">
         <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I125" t="s">
         <v>31</v>
@@ -5615,7 +5615,7 @@
         <v>94</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
         <v>167</v>
@@ -5647,7 +5647,7 @@
         <v>94</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
         <v>167</v>
@@ -5682,19 +5682,19 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F128" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I128" t="s">
         <v>31</v>
@@ -5714,19 +5714,19 @@
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="E129" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="F129" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H129" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I129" t="s">
         <v>31</v>
@@ -5743,25 +5743,25 @@
         <v>94</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="E130" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="F130" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G130" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H130" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I130" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>206</v>
@@ -5775,25 +5775,25 @@
         <v>94</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E131" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F131" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H131" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I131" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>206</v>
@@ -5807,7 +5807,7 @@
         <v>94</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D132" t="s">
         <v>174</v>
@@ -5839,7 +5839,7 @@
         <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D133" t="s">
         <v>174</v>
@@ -5871,16 +5871,16 @@
         <v>94</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E134" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F134" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G134" t="s">
         <v>38</v>
@@ -5903,7 +5903,7 @@
         <v>94</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
         <v>177</v>
@@ -5938,16 +5938,16 @@
         <v>13</v>
       </c>
       <c r="D136" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E136" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F136" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G136" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="H136" t="s">
         <v>38</v>
@@ -5967,16 +5967,16 @@
         <v>94</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E137" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F137" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G137" t="s">
         <v>108</v>
@@ -5999,7 +5999,7 @@
         <v>94</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
         <v>183</v>
@@ -6031,7 +6031,7 @@
         <v>94</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
         <v>183</v>
@@ -6063,25 +6063,25 @@
         <v>94</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E140" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F140" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G140" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="H140" t="s">
         <v>38</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>206</v>
@@ -6095,19 +6095,19 @@
         <v>94</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E141" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F141" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G141" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="H141" t="s">
         <v>38</v>
@@ -6127,25 +6127,25 @@
         <v>94</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E142" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F142" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="H142" t="s">
         <v>38</v>
       </c>
       <c r="I142" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>206</v>
@@ -6162,22 +6162,22 @@
         <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E143" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F143" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G143" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H143" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I143" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>206</v>
@@ -6185,34 +6185,34 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" s="1">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>195</v>
+      </c>
+      <c r="E144" t="s">
+        <v>195</v>
+      </c>
+      <c r="F144" t="s">
+        <v>196</v>
+      </c>
+      <c r="G144" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" t="s">
+        <v>30</v>
+      </c>
+      <c r="I144" t="s">
+        <v>50</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -6223,7 +6223,7 @@
         <v>198</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6289,26 +6289,26 @@
       <c r="C147" t="s">
         <v>21</v>
       </c>
-      <c r="D147" t="s">
-        <v>199</v>
-      </c>
-      <c r="E147" t="s">
-        <v>199</v>
-      </c>
-      <c r="F147" t="s">
-        <v>200</v>
-      </c>
-      <c r="G147" t="s">
-        <v>6</v>
-      </c>
-      <c r="H147" t="s">
-        <v>99</v>
-      </c>
-      <c r="I147" t="s">
-        <v>50</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>207</v>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -6322,25 +6322,25 @@
         <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="G148" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H148" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I148" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -6354,13 +6354,13 @@
         <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="F149" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -6386,30 +6386,30 @@
         <v>21</v>
       </c>
       <c r="D150" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="E150" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="F150" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="G150" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H150" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I150" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B151" t="s">
         <v>198</v>
@@ -6417,26 +6417,26 @@
       <c r="C151" t="s">
         <v>21</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151" s="1">
-        <v>0</v>
+      <c r="D151" t="s">
+        <v>201</v>
+      </c>
+      <c r="E151" t="s">
+        <v>202</v>
+      </c>
+      <c r="F151" t="s">
+        <v>203</v>
+      </c>
+      <c r="G151" t="s">
+        <v>6</v>
+      </c>
+      <c r="H151" t="s">
+        <v>38</v>
+      </c>
+      <c r="I151" t="s">
+        <v>50</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -6447,7 +6447,7 @@
         <v>198</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>198</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6505,13 +6505,13 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B154" t="s">
         <v>198</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>198</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -6575,27 +6575,59 @@
         <v>198</v>
       </c>
       <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>205</v>
+      </c>
+      <c r="B157" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" t="s">
         <v>20</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" s="1">
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
         <v>0</v>
       </c>
     </row>
